--- a/config/search/search_engines.xlsx
+++ b/config/search/search_engines.xlsx
@@ -5,17 +5,17 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="234" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="500" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>URL</t>
   </si>
@@ -26,22 +26,28 @@
     <t>CSS</t>
   </si>
   <si>
+    <t>BANNED</t>
+  </si>
+  <si>
     <t>http://yandex.by/yandsearch?text=</t>
   </si>
   <si>
     <t>&amp;site=</t>
   </si>
   <si>
+    <t>.b-serp-item__title-link span</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>https://www.google.by/search?num=10&amp;q=</t>
+  </si>
+  <si>
+    <t>+site:</t>
+  </si>
+  <si>
     <t>.r a</t>
-  </si>
-  <si>
-    <t>http://www.google.by/search?num=10&amp;q=</t>
-  </si>
-  <si>
-    <t>+site:</t>
-  </si>
-  <si>
-    <t>.b-serp-item__title-link span</t>
   </si>
   <si>
     <t>http://search.tut.by/?status=1&amp;ru=1&amp;encoding=1&amp;page=0&amp;how=rlv&amp;query=</t>
@@ -81,6 +87,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -164,13 +171,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
+      <selection activeCell="D4" activeCellId="0" pane="topLeft" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.2"/>
+  <sheetFormatPr defaultRowHeight="13"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.2857142857143"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
@@ -186,80 +193,95 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/config/search/search_engines.xlsx
+++ b/config/search/search_engines.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>URL</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>.b-serp-item__title-link span</t>
-  </si>
-  <si>
-    <t>+</t>
   </si>
   <si>
     <t>https://www.google.by/search?num=10&amp;q=</t>
@@ -207,72 +204,60 @@
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/config/search/search_engines.xlsx
+++ b/config/search/search_engines.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>URL</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>.b-serp-item__title-link span</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
   <si>
     <t>https://www.google.by/search?num=10&amp;q=</t>
@@ -171,7 +174,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D4" activeCellId="0" pane="topLeft" sqref="D4"/>
+      <selection activeCell="D8" activeCellId="0" pane="topLeft" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -204,60 +207,75 @@
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.5" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
